--- a/Тестирование/ТЕСТОВЫЙ Телефонный справочник.xlsx
+++ b/Тестирование/ТЕСТОВЫЙ Телефонный справочник.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="List_1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="184">
   <si>
     <t xml:space="preserve">CПИСОК ТЕЛЕФОНОВ СОТРУДНИКОВ
 ГКУ ЦЗН ТО </t>
@@ -208,9 +208,10 @@
     <t>СПИСОК ТЕЛЕФОНОВ СОТРУДНИКОВ ОТДЕЛЕНИЙ ГКУ ЦЗН ТО</t>
   </si>
   <si>
-    <t>ОГКУ ЦЗН ТО по Абатскому муниципальному округу
-код 8-345-56 , Факс: 4-13-44
-627540, Тюменская область, с. Абатское, ул. Зеленая, 35,  помещение 2, czn_aba@prto.ru</t>
+    <t>Administratum Tracianus Primaris Helican Subsector
+по Готик-Скарскому муниципальному округу
+код 8-666-13, Факс: 9-99-99
+666013, Сегментум Обскурус, улей Скар, нижний уровень 13, проспект Императорской Веры 666, adeptus_scar@adminhel.throne</t>
   </si>
   <si>
     <t>Ф.И.О.</t>
@@ -253,9 +254,10 @@
     <t>Педро Кальдерон де ла Барка</t>
   </si>
   <si>
-    <t>ОГКУ ЦЗН ТО по Армизонскому муниципальному округу
-код 8-345-47
-627220, Тюменская область, Армизонский р-н, с. Армизонское, ул. Ленина, 3, czn_arm@prto.ru</t>
+    <t>Administratum Tracianus Primaris Helican Subsector
+по Катачанскому форпосту
+код 8-777-44, Факс: 3-21-12
+777044, Сегментум Темпестус, планета Катачан, джунгли Зона-7, база Вердант 44, czn_catachan@prto.throne</t>
   </si>
   <si>
     <t>ГОРОД.
@@ -331,9 +333,10 @@
     <t>Эрик Бэрн</t>
   </si>
   <si>
-    <t>ОГКУ ЦЗН ТО по Исетскому муниципальному округу
-код 8-345-37  Факс: 22-1-72, 22-7-91
-626380, Тюменская область, Исетский район, с. Исетское, ул. Кирова, 18, czn_iset@prto.ru</t>
+    <t>Administratum Tracianus Primaris Helican Subsector
+по Ультрамарскому муниципальному округу
+код 8-001-01, Факс: 5-55-55
+001001, Сегментум Ультима, Макрагг, район Цитадель, улица Робаута Жиллимана 1, ultramar_admin@hel.throne</t>
   </si>
   <si>
     <t>ГОРОД.
@@ -347,18 +350,270 @@
   </si>
   <si>
     <t>Гимли Железностоп</t>
+  </si>
+  <si>
+    <t>Азерот Великий</t>
+  </si>
+  <si>
+    <t>Тоин Дубощит</t>
+  </si>
+  <si>
+    <t>Ариман Изгнангик</t>
+  </si>
+  <si>
+    <t>Administratum Tracianus Primaris Helican Subsector
+по Некромундскому нижнему улью
+код 8-999-66, Факс: 6-66-66
+999066, Сегментум Солар, Некромунда, улей Примус, подуровень 66, шахта Голиаф 999, necromunda_low@adminhel.throne</t>
+  </si>
+  <si>
+    <t>ГОРОД.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВНУТР.
+16</t>
+  </si>
+  <si>
+    <t>Гидеон Рейвенор</t>
+  </si>
+  <si>
+    <t>78-89-23</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Заместитель начальника отделения</t>
+  </si>
+  <si>
+    <t>Ибрам Гаунт</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>Марней Калгар</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>Консультант ЦЗН</t>
+  </si>
+  <si>
+    <t>Логан Гримнар</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>Отдел по работе с гражданами</t>
+  </si>
+  <si>
+    <t>Начальник отдела</t>
+  </si>
+  <si>
+    <t>Азраил</t>
+  </si>
+  <si>
+    <t>963-987</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>Святая Целестина</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>Сильвана</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>Хорус Луперкаль</t>
+  </si>
+  <si>
+    <t>Магнус Красный</t>
+  </si>
+  <si>
+    <t>Мортарион</t>
+  </si>
+  <si>
+    <t>Ангрон</t>
+  </si>
+  <si>
+    <t>Ведущий консультант ЦЗН
+Ашрапова Э.А. (декрет)</t>
+  </si>
+  <si>
+    <t>Фулгрим</t>
+  </si>
+  <si>
+    <t>Лоргар Аврелиан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ведущий консультант ЦЗН </t>
+  </si>
+  <si>
+    <t>Пертурабо</t>
+  </si>
+  <si>
+    <t>Конрад Кёрз</t>
+  </si>
+  <si>
+    <t>Альфарий / Омегон</t>
+  </si>
+  <si>
+    <t>Отдел по развитию карьеры и профессиональных навыков</t>
+  </si>
+  <si>
+    <t>33-33-33</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Кхарн Предатель</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Ведущий психолог
+Саморокова М.П. (декрет)</t>
+  </si>
+  <si>
+    <t>Люций Вечный</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Эльдрад Ультран</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Отдел по взаимодействию с работодателями</t>
+  </si>
+  <si>
+    <t>Джайн Зар</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Иврайна</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Асдрубаэль Вект</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Лорд Тразин Неисчислимый</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Орикан Предсказатель</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Ведущий консультант ЦЗН
+Бордынюк М.С. (декрет)</t>
+  </si>
+  <si>
+    <t>Сарех, Безмолвный Король</t>
+  </si>
+  <si>
+    <t>Горячая линия</t>
+  </si>
+  <si>
+    <t>Газгулл Маг Урук Трака</t>
+  </si>
+  <si>
+    <t>99-99-99</t>
+  </si>
+  <si>
+    <t>Administratum Tracianus Primaris Helican Subsector
+по Талларнскому пустынному округу
+код 8-404-22, Факс: 2-22-40
+404022, Сегментум Темпестус, Талларн, оазис Крепость-22, улица Песчаных Бурь 404, tallarn_oasis@prto.throne</t>
+  </si>
+  <si>
+    <t>Робаут Жиллиман</t>
+  </si>
+  <si>
+    <t>Лев Эль’Джонсон</t>
+  </si>
+  <si>
+    <t>Сангвиний</t>
+  </si>
+  <si>
+    <t>Рогал Дорн</t>
+  </si>
+  <si>
+    <t>Леман Расс</t>
+  </si>
+  <si>
+    <t>Джагатай Хан</t>
+  </si>
+  <si>
+    <t>Вулкан</t>
+  </si>
+  <si>
+    <t>Корвус Коракс</t>
+  </si>
+  <si>
+    <t>Феррус Манус</t>
+  </si>
+  <si>
+    <t>Малкадор Сигиллит</t>
+  </si>
+  <si>
+    <t>Константин Вальдор</t>
+  </si>
+  <si>
+    <t>Траян Валорис</t>
+  </si>
+  <si>
+    <t>Белизарий Коул</t>
+  </si>
+  <si>
+    <t>Себастьян Яррик</t>
+  </si>
+  <si>
+    <t>Кайафас Каин</t>
+  </si>
+  <si>
+    <t>Грегор Эйзенхорн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -722,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -777,6 +1032,43 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -904,7 +1196,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,34 +1208,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,65 +1320,78 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1431,356 +1736,356 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="43.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="43.7142857142857" style="20" customWidth="1"/>
+    <col min="2" max="2" width="43.8571428571429" style="20" customWidth="1"/>
+    <col min="3" max="3" width="29.5714285714286" style="20" customWidth="1"/>
+    <col min="4" max="4" width="13.8571428571429" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.4285714285714" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="21.75" spans="1:6">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" ht="21.75" spans="1:6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29">
         <v>505</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="21.75" spans="1:6">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29">
         <v>320</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" ht="21.75" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29">
         <v>789</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="21.75" spans="1:6">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29">
         <v>637</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" ht="21.75" spans="1:6">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29">
         <v>741</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="21.75" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" ht="21.75" spans="1:6">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29">
         <v>563</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" ht="21.75" spans="1:6">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
         <v>852</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="21.75" spans="1:6">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
         <v>753</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" ht="21.75" spans="1:6">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
         <v>951</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" ht="21.75" spans="1:6">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
         <v>684</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="21.75" spans="1:6">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
         <v>426</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" ht="21.75" spans="1:6">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" ht="21.75" spans="1:6">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29">
         <v>698</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" ht="21.75" spans="1:6">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
         <v>412</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" ht="21.75" spans="1:6">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
         <v>579</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" ht="21.75" spans="1:6">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29">
         <v>958</v>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" ht="21.75" spans="1:6">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29">
         <v>327</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1798,48 +2103,49 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="21" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="21" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="38.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="42.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.2857142857143" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1428571428571" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="103" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" ht="159" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="42.75" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1850,7 +2156,7 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1867,7 +2173,7 @@
       </c>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1882,7 +2188,7 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" ht="37" customHeight="1" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1897,7 +2203,7 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1914,7 +2220,7 @@
       </c>
     </row>
     <row r="8" ht="43" customHeight="1" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1928,23 +2234,23 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" ht="84" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="148" customHeight="1" spans="1:5">
+      <c r="A9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="42.75" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1955,7 +2261,7 @@
       </c>
     </row>
     <row r="11" ht="21.75" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1970,20 +2276,20 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" ht="21.75" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>37196</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" ht="21.75" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1998,7 +2304,7 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" ht="21.75" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2015,7 +2321,7 @@
       </c>
     </row>
     <row r="15" ht="21.75" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2030,7 +2336,7 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" ht="21.75" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2043,7 +2349,7 @@
       <c r="E16" s="8"/>
     </row>
     <row r="17" ht="21.75" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2057,7 +2363,7 @@
       </c>
     </row>
     <row r="18" ht="21.75" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2070,16 +2376,16 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" ht="21.75" spans="1:5">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="21.75" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2094,7 +2400,7 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" ht="21.75" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2104,12 +2410,12 @@
         <v>83</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" ht="21.75" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2124,7 +2430,7 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" ht="21.75" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2139,16 +2445,16 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" ht="21.75" spans="1:5">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" ht="21.75" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2163,13 +2469,13 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" ht="21.75" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>37196</v>
       </c>
       <c r="D26" s="8"/>
@@ -2178,7 +2484,7 @@
       </c>
     </row>
     <row r="27" ht="21.75" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2193,22 +2499,22 @@
       <c r="E27" s="8"/>
     </row>
     <row r="28" ht="99" customHeight="1" spans="1:5">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" ht="42.75" spans="1:5">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -2219,7 +2525,7 @@
       </c>
     </row>
     <row r="30" ht="21.75" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2234,7 +2540,7 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" ht="21.75" spans="1:5">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -2249,47 +2555,932 @@
       </c>
     </row>
     <row r="32" ht="21.75" spans="1:5">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="8">
+        <v>2422123</v>
+      </c>
       <c r="D32" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" ht="21.75" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" ht="21.75" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2422123</v>
+      </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" ht="21.75" spans="1:5">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2422123</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
+    <row r="36" ht="128" customHeight="1" spans="1:5">
+      <c r="A36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" ht="42.75" spans="1:6">
+      <c r="A37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" ht="21.75" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" ht="42.75" spans="1:6">
+      <c r="A39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" ht="21.75" spans="1:6">
+      <c r="A40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" ht="21.75" spans="1:6">
+      <c r="A41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" ht="21.75" spans="1:6">
+      <c r="A42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" ht="21.75" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" ht="21.75" spans="1:6">
+      <c r="A44" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" ht="21.75" spans="1:6">
+      <c r="A45" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="21.75" spans="1:6">
+      <c r="A46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" ht="21.75" spans="1:6">
+      <c r="A47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" ht="21.75" spans="1:6">
+      <c r="A48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" ht="21.75" spans="1:6">
+      <c r="A49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" ht="21.75" spans="1:6">
+      <c r="A50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" ht="42.75" spans="1:6">
+      <c r="A51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" ht="21.75" spans="1:6">
+      <c r="A52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" ht="21.75" spans="1:6">
+      <c r="A53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" ht="21.75" spans="1:6">
+      <c r="A54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" ht="21.75" spans="1:6">
+      <c r="A55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" ht="21.75" spans="1:6">
+      <c r="A56" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" ht="21.75" spans="1:6">
+      <c r="A57" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" ht="21.75" spans="1:6">
+      <c r="A58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" ht="42.75" spans="1:6">
+      <c r="A59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" ht="21.75" spans="1:6">
+      <c r="A60" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" ht="21.75" spans="1:6">
+      <c r="A61" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" ht="21.75" spans="1:6">
+      <c r="A62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" ht="21.75" spans="1:6">
+      <c r="A63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" ht="21.75" spans="1:6">
+      <c r="A64" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" ht="21.75" spans="1:6">
+      <c r="A65" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" ht="21.75" spans="1:6">
+      <c r="A66" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" ht="42.75" spans="1:6">
+      <c r="A67" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" ht="21.75" spans="1:6">
+      <c r="A68" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" ht="105" customHeight="1" spans="1:5">
+      <c r="A69" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+    </row>
+    <row r="70" ht="21.75" spans="1:5">
+      <c r="A70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" ht="21.75" spans="1:5">
+      <c r="A71" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" ht="42.75" spans="1:5">
+      <c r="A72" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" ht="21.75" spans="1:5">
+      <c r="A73" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" ht="21.75" spans="1:5">
+      <c r="A74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" ht="21.75" spans="1:5">
+      <c r="A75" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" ht="21.75" spans="1:5">
+      <c r="A76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="16"/>
+    </row>
+    <row r="77" ht="21.75" spans="1:5">
+      <c r="A77" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" ht="21.75" spans="1:5">
+      <c r="A78" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" ht="21.75" spans="1:5">
+      <c r="A79" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" ht="21.75" spans="1:5">
+      <c r="A80" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" ht="21.75" spans="1:5">
+      <c r="A81" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" ht="21.75" spans="1:5">
+      <c r="A82" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" ht="21.75" spans="1:5">
+      <c r="A83" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" ht="21.75" spans="1:5">
+      <c r="A84" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" ht="21.75" spans="1:5">
+      <c r="A85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" ht="21.75" spans="1:5">
+      <c r="A86" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" ht="21.75" spans="1:5">
+      <c r="A87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" ht="21.75" spans="1:5">
+      <c r="A88" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="8">
+        <v>2422123</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="19"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="19"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="19"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="19"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="19"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="19"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="19"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="17">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C45:C55"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C62:C67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
